--- a/data/clean/turism_expenditure_by_trip_motive.xlsx
+++ b/data/clean/turism_expenditure_by_trip_motive.xlsx
@@ -465,7 +465,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -486,7 +486,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -507,7 +507,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -528,7 +528,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -549,7 +549,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -570,7 +570,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -591,7 +591,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -612,7 +612,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -633,7 +633,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -654,7 +654,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -675,7 +675,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -717,7 +717,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -738,7 +738,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -780,7 +780,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -801,7 +801,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -822,7 +822,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -843,7 +843,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -864,7 +864,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -885,7 +885,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -906,7 +906,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -927,7 +927,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -948,7 +948,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -969,7 +969,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -990,7 +990,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1053,7 +1053,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1095,7 +1095,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1137,7 +1137,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1158,7 +1158,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1200,7 +1200,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1221,7 +1221,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1242,7 +1242,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1284,7 +1284,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1326,7 +1326,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1347,7 +1347,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1368,7 +1368,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1389,7 +1389,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1410,7 +1410,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1431,7 +1431,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1452,7 +1452,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1473,7 +1473,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1494,7 +1494,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1515,7 +1515,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1557,7 +1557,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1578,7 +1578,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1620,7 +1620,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1641,7 +1641,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1662,7 +1662,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1704,7 +1704,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -1746,7 +1746,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -1767,7 +1767,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -1788,7 +1788,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -1809,7 +1809,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -1830,7 +1830,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -1851,7 +1851,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -1872,7 +1872,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -1893,7 +1893,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -1914,7 +1914,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -1935,7 +1935,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -1956,7 +1956,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -1977,7 +1977,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2019,7 +2019,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2040,7 +2040,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2061,7 +2061,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2082,7 +2082,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2103,7 +2103,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2124,7 +2124,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2145,7 +2145,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2166,7 +2166,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2187,7 +2187,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2208,7 +2208,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2229,7 +2229,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -2250,7 +2250,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -2292,7 +2292,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -2313,7 +2313,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -2334,7 +2334,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -2355,7 +2355,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -2376,7 +2376,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -2397,7 +2397,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -2418,7 +2418,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -2439,7 +2439,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2460,7 +2460,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -2481,7 +2481,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -2502,7 +2502,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -2523,7 +2523,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -2544,7 +2544,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -2565,7 +2565,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -2586,7 +2586,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -2607,7 +2607,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -2628,7 +2628,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -2649,7 +2649,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -2670,7 +2670,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -2691,7 +2691,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -2712,7 +2712,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -2733,7 +2733,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -2754,7 +2754,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -2775,7 +2775,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -2796,7 +2796,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -2817,7 +2817,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -2838,7 +2838,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -2859,7 +2859,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -2880,7 +2880,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -2901,7 +2901,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -2922,7 +2922,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -2943,7 +2943,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -2964,7 +2964,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -2985,7 +2985,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -3006,7 +3006,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -3027,7 +3027,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -3048,7 +3048,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -3069,7 +3069,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -3090,7 +3090,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -3111,7 +3111,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -3132,7 +3132,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -3153,7 +3153,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -3174,7 +3174,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -3195,7 +3195,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -3216,7 +3216,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -3237,7 +3237,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -3258,7 +3258,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -3279,7 +3279,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -3300,7 +3300,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -3321,7 +3321,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -3342,7 +3342,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -3363,7 +3363,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -3384,7 +3384,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -3405,7 +3405,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -3426,7 +3426,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -3447,7 +3447,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -3468,7 +3468,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -3489,7 +3489,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -3510,7 +3510,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -3531,7 +3531,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -3552,7 +3552,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -3573,7 +3573,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -3594,7 +3594,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -3615,7 +3615,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -3636,7 +3636,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -3657,7 +3657,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -3678,7 +3678,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -3699,7 +3699,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -3720,7 +3720,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -3741,7 +3741,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -3762,7 +3762,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -3783,7 +3783,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -3804,7 +3804,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -3825,7 +3825,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -3846,7 +3846,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -3867,7 +3867,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -3888,7 +3888,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -3909,7 +3909,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -3930,7 +3930,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -3951,7 +3951,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -3972,7 +3972,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -3993,7 +3993,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -4014,7 +4014,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -4035,7 +4035,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -4056,7 +4056,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -4077,7 +4077,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -4098,7 +4098,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -4119,7 +4119,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -4140,7 +4140,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -4161,7 +4161,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -4182,7 +4182,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -4203,7 +4203,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -4224,7 +4224,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -4245,7 +4245,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -4266,7 +4266,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -4287,7 +4287,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -4308,7 +4308,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -4329,7 +4329,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -4350,7 +4350,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -4371,7 +4371,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -4392,7 +4392,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -4413,7 +4413,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -4434,7 +4434,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -4455,7 +4455,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -4476,7 +4476,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -4497,7 +4497,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -4518,7 +4518,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -4539,7 +4539,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -4560,7 +4560,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -4581,7 +4581,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -4602,7 +4602,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -4623,7 +4623,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -4644,7 +4644,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -4665,7 +4665,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -4686,7 +4686,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -4707,7 +4707,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -4728,7 +4728,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -4749,7 +4749,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -4770,7 +4770,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -4791,7 +4791,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -4812,7 +4812,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -4833,7 +4833,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -4854,7 +4854,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -4875,7 +4875,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -4896,7 +4896,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -4917,7 +4917,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -4938,7 +4938,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -4959,7 +4959,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -4980,7 +4980,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -5001,7 +5001,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -5022,7 +5022,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -5043,7 +5043,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -5064,7 +5064,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -5085,7 +5085,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -5106,7 +5106,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -5127,7 +5127,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -5148,7 +5148,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -5169,7 +5169,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -5190,7 +5190,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -5211,7 +5211,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -5232,7 +5232,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -5253,7 +5253,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -5274,7 +5274,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -5295,7 +5295,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -5316,7 +5316,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -5337,7 +5337,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -5358,7 +5358,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -5379,7 +5379,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -5400,7 +5400,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -5421,7 +5421,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -5442,7 +5442,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -5463,7 +5463,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -5484,7 +5484,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -5505,7 +5505,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -5526,7 +5526,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -5547,7 +5547,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -5568,7 +5568,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -5589,7 +5589,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -5610,7 +5610,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -5631,7 +5631,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -5652,7 +5652,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -5673,7 +5673,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -5694,7 +5694,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -5715,7 +5715,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -5736,7 +5736,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -5757,7 +5757,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -5778,7 +5778,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -5799,7 +5799,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -5820,7 +5820,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -5841,7 +5841,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -5862,7 +5862,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -5883,7 +5883,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -5904,7 +5904,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -5925,7 +5925,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -5946,7 +5946,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -5967,7 +5967,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -5988,7 +5988,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -6009,7 +6009,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -6030,7 +6030,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -6051,7 +6051,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -6072,7 +6072,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -6093,7 +6093,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -6114,7 +6114,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -6135,7 +6135,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -6156,7 +6156,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -6177,7 +6177,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -6198,7 +6198,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -6219,7 +6219,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -6240,7 +6240,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -6261,7 +6261,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -6282,7 +6282,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -6303,7 +6303,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -6324,7 +6324,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -6345,7 +6345,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -6366,7 +6366,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -6387,7 +6387,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -6408,7 +6408,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -6429,7 +6429,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -6450,7 +6450,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -6471,7 +6471,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -6492,7 +6492,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -6513,7 +6513,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -6534,7 +6534,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -6555,7 +6555,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -6576,7 +6576,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -6597,7 +6597,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -6618,7 +6618,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -6639,7 +6639,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -6660,7 +6660,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -6681,7 +6681,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -6702,7 +6702,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -6723,7 +6723,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -6744,7 +6744,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -6765,7 +6765,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -6786,7 +6786,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -6807,7 +6807,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -6828,7 +6828,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -6849,7 +6849,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -6870,7 +6870,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -6891,7 +6891,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -6912,7 +6912,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -6933,7 +6933,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -6954,7 +6954,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -6975,7 +6975,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -6996,7 +6996,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -7017,7 +7017,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -7038,7 +7038,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -7059,7 +7059,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -7080,7 +7080,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -7101,7 +7101,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -7122,7 +7122,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -7143,7 +7143,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -7164,7 +7164,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -7185,7 +7185,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -7206,7 +7206,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -7227,7 +7227,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -7248,7 +7248,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -7269,7 +7269,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -7290,7 +7290,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -7311,7 +7311,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -7332,7 +7332,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -7353,7 +7353,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -7374,7 +7374,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -7395,7 +7395,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -7416,7 +7416,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -7437,7 +7437,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -7458,7 +7458,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -7479,7 +7479,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -7500,7 +7500,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -7521,7 +7521,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -7542,7 +7542,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -7563,7 +7563,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -7584,7 +7584,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -7605,7 +7605,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -7626,7 +7626,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -7647,7 +7647,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -7668,7 +7668,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -7689,7 +7689,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -7710,7 +7710,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -7731,7 +7731,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -7752,7 +7752,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -7773,7 +7773,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -7794,7 +7794,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -7815,7 +7815,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -7836,7 +7836,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -7857,7 +7857,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -7878,7 +7878,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -7899,7 +7899,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -7920,7 +7920,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -7941,7 +7941,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -7962,7 +7962,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -7983,7 +7983,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -8004,7 +8004,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -8025,7 +8025,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -8046,7 +8046,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -8067,7 +8067,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -8088,7 +8088,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -8109,7 +8109,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -8130,7 +8130,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -8151,7 +8151,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -8172,7 +8172,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -8193,7 +8193,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -8214,7 +8214,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -8235,7 +8235,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -8256,7 +8256,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -8277,7 +8277,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -8298,7 +8298,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -8319,7 +8319,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -8340,7 +8340,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -8361,7 +8361,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -8382,7 +8382,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -8403,7 +8403,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
@@ -8424,7 +8424,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -8445,7 +8445,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -8466,7 +8466,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -8487,7 +8487,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -8508,7 +8508,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
